--- a/data/trans_dic/P1802_2016_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P1802_2016_2023-Dificultad-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1393328832199251</v>
+        <v>0.1401894612531255</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1567545904981575</v>
+        <v>0.1575924334666278</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1848844265193651</v>
+        <v>0.1857357973290717</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.159442775592471</v>
+        <v>0.1619058361786745</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1694192949648342</v>
+        <v>0.1681006751103874</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1690207282858705</v>
+        <v>0.168094600325642</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1844998113195013</v>
+        <v>0.1858817675786887</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2321746991615909</v>
+        <v>0.2298833981814846</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2298040975285852</v>
+        <v>0.2323953572871483</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2126927261946389</v>
+        <v>0.2134702765437581</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2024671252540761</v>
+        <v>0.2018177771889899</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2112404218098199</v>
+        <v>0.213011359807306</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1182648413932786</v>
+        <v>0.1175092473068561</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1004816232990448</v>
+        <v>0.1000196606103079</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1835700086889942</v>
+        <v>0.1830841227580258</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1594208524177679</v>
+        <v>0.1596974919462774</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1614197025402618</v>
+        <v>0.1574581096712687</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1368385603893464</v>
+        <v>0.1372813794995785</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1660303555616907</v>
+        <v>0.1634733597432571</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1435042887043763</v>
+        <v>0.1425399567794774</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2353560754219451</v>
+        <v>0.2370024249638742</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1972474778295104</v>
+        <v>0.1970981100303744</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1967325788951584</v>
+        <v>0.1949959615698791</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1651736413069156</v>
+        <v>0.1651195891708589</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.1423926781192962</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.1624323886700647</v>
+        <v>0.1624323886700646</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09848278065378142</v>
+        <v>0.09980459474243383</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1142693068552292</v>
+        <v>0.1157169669612968</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.140828203716526</v>
+        <v>0.1424716232985098</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1688458134295179</v>
+        <v>0.1709383408073004</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1245968966681607</v>
+        <v>0.1253584747384675</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1469402171453157</v>
+        <v>0.1484480449937817</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1453233606899818</v>
+        <v>0.1497031471687146</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1625583396153564</v>
+        <v>0.1562735751127382</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1956049858381403</v>
+        <v>0.1924495399199739</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2128060751688638</v>
+        <v>0.2116620846706733</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1620865218433406</v>
+        <v>0.161149032704762</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1781197132042862</v>
+        <v>0.1771796028357982</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.1274172174786173</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1976599048497074</v>
+        <v>0.1976599048497073</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1360791845300195</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.111677349185109</v>
+        <v>0.1149388594547598</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1587980437115658</v>
+        <v>0.1593383947760664</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09947060140918412</v>
+        <v>0.0998769888930503</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1758076698865048</v>
+        <v>0.174768346077912</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1134106846910686</v>
+        <v>0.1150608512648326</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1741363779429558</v>
+        <v>0.1761573643740676</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1795000450632516</v>
+        <v>0.177623808053514</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2120684989354366</v>
+        <v>0.2136460467109007</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1579927748335052</v>
+        <v>0.1601869517071818</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2220181489117184</v>
+        <v>0.2255051428782364</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1594904084785029</v>
+        <v>0.1590758015520119</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2085466237911296</v>
+        <v>0.2083913008150721</v>
       </c>
     </row>
     <row r="16">
@@ -952,7 +952,7 @@
         <v>0.1660758095975933</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.1707247917741573</v>
+        <v>0.1707247917741574</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1296055806725828</v>
+        <v>0.1303497164380346</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1409896815476797</v>
+        <v>0.1404139017875249</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1745750527638882</v>
+        <v>0.1750469823948836</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1761945580148126</v>
+        <v>0.1777283719191509</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1565185976946356</v>
+        <v>0.1575425307376939</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.162112026295516</v>
+        <v>0.1620657876532598</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1550061099782577</v>
+        <v>0.1544723291784669</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1667068731155231</v>
+        <v>0.1659005956278624</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.201273254310627</v>
+        <v>0.2017268510243097</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2000039870121729</v>
+        <v>0.199792635792871</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1756867345965688</v>
+        <v>0.1761312996375655</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1789877711667501</v>
+        <v>0.1790674830972873</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>157167</v>
+        <v>158133</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>78055</v>
+        <v>78472</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>232873</v>
+        <v>233946</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>99425</v>
+        <v>100961</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>404498</v>
+        <v>401350</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>189561</v>
+        <v>188522</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>208115</v>
+        <v>209674</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>115610</v>
+        <v>114469</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>289452</v>
+        <v>292716</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>132631</v>
+        <v>133116</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>483402</v>
+        <v>481852</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>236911</v>
+        <v>238897</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>107482</v>
+        <v>106795</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>96476</v>
+        <v>96033</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>184759</v>
+        <v>184270</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>177673</v>
+        <v>177982</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>309167</v>
+        <v>301580</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>283889</v>
+        <v>284808</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>150893</v>
+        <v>148569</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>137784</v>
+        <v>136858</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>236880</v>
+        <v>238537</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>219831</v>
+        <v>219664</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>376802</v>
+        <v>373476</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>342674</v>
+        <v>342562</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>81126</v>
+        <v>82215</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>119580</v>
+        <v>121095</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>108587</v>
+        <v>109854</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>176775</v>
+        <v>178965</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>198709</v>
+        <v>199924</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>307610</v>
+        <v>310767</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>119711</v>
+        <v>123319</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>170114</v>
+        <v>163537</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>150823</v>
+        <v>148390</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>222799</v>
+        <v>221602</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>258499</v>
+        <v>257003</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>372883</v>
+        <v>370915</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>56587</v>
+        <v>58240</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>154837</v>
+        <v>155364</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>48711</v>
+        <v>48910</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>159746</v>
+        <v>158802</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>113002</v>
+        <v>114646</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>328020</v>
+        <v>331827</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>90953</v>
+        <v>90002</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>206778</v>
+        <v>208317</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>77369</v>
+        <v>78443</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>201735</v>
+        <v>204903</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>158916</v>
+        <v>158503</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>392839</v>
+        <v>392546</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>436419</v>
+        <v>438924</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>490590</v>
+        <v>488586</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>615690</v>
+        <v>617354</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>650805</v>
+        <v>656471</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1079051</v>
+        <v>1086110</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1162876</v>
+        <v>1162544</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>521949</v>
+        <v>520152</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>580076</v>
+        <v>577270</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>709849</v>
+        <v>711449</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>738750</v>
+        <v>737969</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1211198</v>
+        <v>1214262</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1283931</v>
+        <v>1284502</v>
       </c>
     </row>
     <row r="24">
